--- a/test/Fulldump800.xlsx
+++ b/test/Fulldump800.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathr\Dropbox\Masterarbeit\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathr\Dropbox\Masterarbeit\Code\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F01F7B-2038-41A2-9816-5F384F9C0B97}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAC6A63-BBF9-4A7C-A219-AFF7E3D5D89C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{7637DD7C-76B0-4C82-8993-B3BC4A778875}"/>
   </bookViews>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E9617-1630-45CA-BBF0-B30A3F8C08A7}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -780,7 +780,9 @@
   <cols>
     <col min="1" max="1" width="10.90625" style="1"/>
     <col min="2" max="2" width="67.08984375" style="1" customWidth="1"/>
-    <col min="3" max="19" width="10.90625" style="1"/>
+    <col min="3" max="4" width="10.90625" style="1"/>
+    <col min="5" max="5" width="21.81640625" style="1" customWidth="1"/>
+    <col min="6" max="19" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
